--- a/data/trans_orig/P17_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P17_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>131163</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>111226</v>
+        <v>112644</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>149672</v>
+        <v>151637</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2777272752639548</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2355123061239729</v>
+        <v>0.2385145552818628</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3169179441977894</v>
+        <v>0.3210801159843593</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -765,19 +765,19 @@
         <v>93048</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78038</v>
+        <v>77721</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>109086</v>
+        <v>110305</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3034029236831259</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2544597948562551</v>
+        <v>0.253427250890292</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3556995860998738</v>
+        <v>0.3596744881455219</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>220</v>
@@ -786,19 +786,19 @@
         <v>224211</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>200836</v>
+        <v>198392</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>251070</v>
+        <v>251023</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2878359939845282</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2578275964075339</v>
+        <v>0.2546899682500054</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3223175765225764</v>
+        <v>0.3222569113159718</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>341110</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>322601</v>
+        <v>320636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>361047</v>
+        <v>359629</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7222727247360452</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6830820558022108</v>
+        <v>0.6789198840156406</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7644876938760284</v>
+        <v>0.7614854447181372</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>208</v>
@@ -836,19 +836,19 @@
         <v>213632</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>197594</v>
+        <v>196375</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>228642</v>
+        <v>228959</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6965970763168741</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6443004139001258</v>
+        <v>0.6403255118544784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7455402051437447</v>
+        <v>0.7465727491097081</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>532</v>
@@ -857,19 +857,19 @@
         <v>554742</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>527883</v>
+        <v>527930</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>578117</v>
+        <v>580561</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7121640060154718</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6776824234774237</v>
+        <v>0.6777430886840281</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7421724035924661</v>
+        <v>0.7453100317499947</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>97119</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80685</v>
+        <v>79814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>115503</v>
+        <v>114272</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2659071778704141</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.220910558156687</v>
+        <v>0.2185270165228347</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3162400556579767</v>
+        <v>0.3128717025126578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>122</v>
@@ -982,19 +982,19 @@
         <v>124999</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>105342</v>
+        <v>107001</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>142392</v>
+        <v>145840</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3361416801101192</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2832794979660431</v>
+        <v>0.2877423906593789</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3829129161529773</v>
+        <v>0.3921855106605511</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>213</v>
@@ -1003,19 +1003,19 @@
         <v>222118</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196600</v>
+        <v>198566</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>247787</v>
+        <v>249377</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3013401805772693</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2667207103941422</v>
+        <v>0.2693871730929988</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3361637117782255</v>
+        <v>0.3383209507855919</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>268118</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>249734</v>
+        <v>250965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>284552</v>
+        <v>285423</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7340928221295859</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6837599443420233</v>
+        <v>0.6871282974873421</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7790894418433133</v>
+        <v>0.7814729834771652</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>241</v>
@@ -1053,19 +1053,19 @@
         <v>246866</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>229473</v>
+        <v>226025</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>266523</v>
+        <v>264864</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6638583198898808</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6170870838470228</v>
+        <v>0.6078144893394489</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7167205020339571</v>
+        <v>0.712257609340621</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>498</v>
@@ -1074,19 +1074,19 @@
         <v>514984</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>489315</v>
+        <v>487725</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>540502</v>
+        <v>538536</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6986598194227307</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6638362882217745</v>
+        <v>0.6616790492144081</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7332792896058578</v>
+        <v>0.7306128269070015</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>142489</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>124004</v>
+        <v>123123</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165912</v>
+        <v>163617</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2627064063789415</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2286251582091865</v>
+        <v>0.2270017898052209</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3058910699160705</v>
+        <v>0.30166072426673</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -1199,19 +1199,19 @@
         <v>69207</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58012</v>
+        <v>56672</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82844</v>
+        <v>81413</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4124834380665912</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3457593701762186</v>
+        <v>0.3377704509956735</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4937571737666488</v>
+        <v>0.4852289029441311</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>207</v>
@@ -1220,19 +1220,19 @@
         <v>211696</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>187966</v>
+        <v>190216</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>234923</v>
+        <v>236504</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2980920754984157</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.264677052293548</v>
+        <v>0.267844956865406</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.330798045297879</v>
+        <v>0.3330237850386695</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>399900</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>376477</v>
+        <v>378772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>418385</v>
+        <v>419266</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7372935936210585</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6941089300839295</v>
+        <v>0.6983392757332699</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7713748417908135</v>
+        <v>0.7729982101947791</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>97</v>
@@ -1270,19 +1270,19 @@
         <v>98575</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>84938</v>
+        <v>86369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>109770</v>
+        <v>111110</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5875165619334087</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5062428262333512</v>
+        <v>0.5147710970558691</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6542406298237816</v>
+        <v>0.6622295490043266</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>489</v>
@@ -1291,19 +1291,19 @@
         <v>498475</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>475248</v>
+        <v>473667</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>522205</v>
+        <v>519955</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7019079245015843</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6692019547021208</v>
+        <v>0.6669762149613305</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7353229477064519</v>
+        <v>0.732155043134594</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>302724</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>275882</v>
+        <v>271199</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>332715</v>
+        <v>331466</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2453012339035443</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2235507526991726</v>
+        <v>0.2197558166797004</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2696029626289532</v>
+        <v>0.2685910837984877</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>247</v>
@@ -1416,19 +1416,19 @@
         <v>248201</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>222537</v>
+        <v>220744</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>275134</v>
+        <v>273678</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3474821230836158</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3115515342183693</v>
+        <v>0.3090413209752468</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3851878602581323</v>
+        <v>0.3831498438210328</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>548</v>
@@ -1437,19 +1437,19 @@
         <v>550925</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>510562</v>
+        <v>511719</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>592447</v>
+        <v>588413</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2827613043804594</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2620449381178713</v>
+        <v>0.2626389170201173</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.304072096540256</v>
+        <v>0.3020019756003735</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>931367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>901376</v>
+        <v>902625</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>958209</v>
+        <v>962892</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7546987660964557</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7303970373710468</v>
+        <v>0.7314089162015123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7764492473008274</v>
+        <v>0.7802441833202997</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>447</v>
@@ -1487,19 +1487,19 @@
         <v>466084</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>439151</v>
+        <v>440607</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>491748</v>
+        <v>493541</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6525178769163842</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6148121397418677</v>
+        <v>0.6168501561789672</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6884484657816307</v>
+        <v>0.6909586790247531</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1366</v>
@@ -1508,19 +1508,19 @@
         <v>1397451</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1355929</v>
+        <v>1359963</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1437814</v>
+        <v>1436657</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7172386956195406</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.695927903459744</v>
+        <v>0.6979980243996265</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7379550618821287</v>
+        <v>0.7373610829798827</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>70316</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56488</v>
+        <v>55185</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86538</v>
+        <v>85269</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2011460749346777</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1615899652890232</v>
+        <v>0.1578624004872679</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.247551978832517</v>
+        <v>0.2439215630259883</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>180</v>
@@ -1633,19 +1633,19 @@
         <v>186756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>166267</v>
+        <v>164927</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>211955</v>
+        <v>212584</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3283601850001442</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2923370587588939</v>
+        <v>0.2899798530440524</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3726666707597596</v>
+        <v>0.3737734789014994</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>248</v>
@@ -1654,19 +1654,19 @@
         <v>257071</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>231224</v>
+        <v>232822</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>286454</v>
+        <v>284444</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2799340599247698</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2517877760255195</v>
+        <v>0.2535286204948644</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3119294873322448</v>
+        <v>0.3097410907313796</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>279261</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>263039</v>
+        <v>264308</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>293089</v>
+        <v>294392</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7988539250653223</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.752448021167483</v>
+        <v>0.7560784369740117</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8384100347109766</v>
+        <v>0.842137599512732</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>359</v>
@@ -1704,19 +1704,19 @@
         <v>381996</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>356797</v>
+        <v>356168</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>402485</v>
+        <v>403825</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6716398149998558</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.627333329240241</v>
+        <v>0.6262265210985006</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7076629412411062</v>
+        <v>0.7100201469559476</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>630</v>
@@ -1725,19 +1725,19 @@
         <v>661257</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>631874</v>
+        <v>633884</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>687104</v>
+        <v>685506</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7200659400752303</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6880705126677547</v>
+        <v>0.6902589092686205</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.74821222397448</v>
+        <v>0.7464713795051355</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>20712</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12713</v>
+        <v>13299</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31637</v>
+        <v>30835</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0696874626113955</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0427740288602577</v>
+        <v>0.04474463913515151</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1064467436121485</v>
+        <v>0.1037483577382266</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>316</v>
@@ -1850,19 +1850,19 @@
         <v>319555</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>293754</v>
+        <v>286055</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>350954</v>
+        <v>348275</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2562898068654472</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2355968118003667</v>
+        <v>0.2294218925171651</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2814726468467973</v>
+        <v>0.2793237812241341</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>335</v>
@@ -1871,19 +1871,19 @@
         <v>340267</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>306908</v>
+        <v>309773</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>371155</v>
+        <v>373206</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2203713368712879</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1987666921986031</v>
+        <v>0.200621879158788</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2403753144076299</v>
+        <v>0.2417037157175699</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>276500</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265575</v>
+        <v>266377</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>284499</v>
+        <v>283913</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9303125373886045</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8935532563878514</v>
+        <v>0.8962516422617733</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9572259711397423</v>
+        <v>0.9552553608648484</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>920</v>
@@ -1921,19 +1921,19 @@
         <v>927296</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>895897</v>
+        <v>898576</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>953097</v>
+        <v>960796</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7437101931345528</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7185273531532028</v>
+        <v>0.720676218775866</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7644031881996332</v>
+        <v>0.770578107482835</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1206</v>
@@ -1942,19 +1942,19 @@
         <v>1203796</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1172908</v>
+        <v>1170857</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1237155</v>
+        <v>1234290</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7796286631287122</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7596246855923701</v>
+        <v>0.7582962842824301</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8012333078013967</v>
+        <v>0.799378120841212</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>764523</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>716754</v>
+        <v>717947</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>815161</v>
+        <v>813573</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2344603586475834</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2198105192243401</v>
+        <v>0.2201763997169769</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2499896496246203</v>
+        <v>0.2495026871510677</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1022</v>
@@ -2067,19 +2067,19 @@
         <v>1041766</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>994810</v>
+        <v>985417</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1098140</v>
+        <v>1095370</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3085603817918431</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2946522942680423</v>
+        <v>0.2918701083496594</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3252576853313028</v>
+        <v>0.3244372752447822</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1771</v>
@@ -2088,19 +2088,19 @@
         <v>1806290</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1731530</v>
+        <v>1734376</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1882603</v>
+        <v>1881707</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2721547809546648</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2608907715969741</v>
+        <v>0.2613195026849616</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2836529148597396</v>
+        <v>0.283517894144323</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2496256</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2445618</v>
+        <v>2447206</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2544025</v>
+        <v>2542832</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7655396413524166</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7500103503753799</v>
+        <v>0.7504973128489324</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7801894807756599</v>
+        <v>0.7798236002830232</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2272</v>
@@ -2138,19 +2138,19 @@
         <v>2334450</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2278076</v>
+        <v>2280846</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2381406</v>
+        <v>2390799</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6914396182081569</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6747423146686973</v>
+        <v>0.6755627247552179</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7053477057319577</v>
+        <v>0.7081298916503406</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4721</v>
@@ -2159,19 +2159,19 @@
         <v>4830704</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4754391</v>
+        <v>4755287</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4905464</v>
+        <v>4902618</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7278452190453352</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7163470851402604</v>
+        <v>0.7164821058556766</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7391092284030258</v>
+        <v>0.7386804973150383</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>109260</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90733</v>
+        <v>90431</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129351</v>
+        <v>128516</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2499032175508788</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2075277684117401</v>
+        <v>0.2068355539109156</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2958546628892864</v>
+        <v>0.2939440213778977</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>100</v>
@@ -2526,19 +2526,19 @@
         <v>110981</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>92794</v>
+        <v>92726</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>130672</v>
+        <v>128899</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3553292842558218</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2971006573920693</v>
+        <v>0.2968822684600763</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4183760727654106</v>
+        <v>0.4126995999768325</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>203</v>
@@ -2547,19 +2547,19 @@
         <v>220241</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>195138</v>
+        <v>191389</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>246694</v>
+        <v>245493</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2938339342292287</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2603426646223771</v>
+        <v>0.2553402912045434</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3291261276990547</v>
+        <v>0.3275238818804782</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>327951</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>307860</v>
+        <v>308695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>346478</v>
+        <v>346780</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7500967824491213</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7041453371107138</v>
+        <v>0.7060559786221022</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7924722315882602</v>
+        <v>0.7931644460890843</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>181</v>
@@ -2597,19 +2597,19 @@
         <v>201351</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>181660</v>
+        <v>183433</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>219538</v>
+        <v>219606</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6446707157441782</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5816239272345894</v>
+        <v>0.5873004000231675</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7028993426079307</v>
+        <v>0.7031177315399237</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>482</v>
@@ -2618,19 +2618,19 @@
         <v>529302</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>502849</v>
+        <v>504050</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>554405</v>
+        <v>558154</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7061660657707712</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6708738723009453</v>
+        <v>0.6724761181195218</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.739657335377623</v>
+        <v>0.7446597087954565</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>137683</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>117485</v>
+        <v>117259</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158440</v>
+        <v>158452</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3287580573052417</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2805302650120683</v>
+        <v>0.2799892836899905</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3783215603127598</v>
+        <v>0.3783510326509058</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>145</v>
@@ -2743,19 +2743,19 @@
         <v>162074</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>143767</v>
+        <v>141221</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>181324</v>
+        <v>179616</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4794940068351328</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4253314832731834</v>
+        <v>0.4178009754489123</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5364454383509706</v>
+        <v>0.5313906216921891</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>269</v>
@@ -2764,19 +2764,19 @@
         <v>299757</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>271603</v>
+        <v>272302</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>328121</v>
+        <v>328580</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3960808394370712</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3588791998496975</v>
+        <v>0.3598033117547556</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4335595464061338</v>
+        <v>0.4341650689618132</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>281114</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>260357</v>
+        <v>260345</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>301312</v>
+        <v>301538</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6712419426947582</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6216784396872401</v>
+        <v>0.6216489673490941</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7194697349879318</v>
+        <v>0.7200107163100095</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>160</v>
@@ -2814,19 +2814,19 @@
         <v>175937</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>156687</v>
+        <v>158395</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>194244</v>
+        <v>196790</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5205059931648672</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4635545616490294</v>
+        <v>0.4686093783078109</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5746685167268165</v>
+        <v>0.5821990245510876</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>411</v>
@@ -2835,19 +2835,19 @@
         <v>457051</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>428687</v>
+        <v>428228</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>485205</v>
+        <v>484506</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6039191605629287</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5664404535938664</v>
+        <v>0.5658349310381866</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6411208001503026</v>
+        <v>0.6401966882452444</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>160458</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140858</v>
+        <v>139447</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>183319</v>
+        <v>183965</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2549321737601996</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2237922847164794</v>
+        <v>0.2215493885511656</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2912532104057226</v>
+        <v>0.2922790682723927</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -2960,19 +2960,19 @@
         <v>82134</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>68210</v>
+        <v>67852</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97776</v>
+        <v>96544</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3157418260714447</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2622144903224426</v>
+        <v>0.2608414719728954</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3758767831981875</v>
+        <v>0.3711385067269037</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>231</v>
@@ -2981,19 +2981,19 @@
         <v>242592</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>215259</v>
+        <v>215720</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>271737</v>
+        <v>271603</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.272714740730971</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2419880098360093</v>
+        <v>0.2425059177169386</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3054792792182124</v>
+        <v>0.3053287631666797</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>468957</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>446096</v>
+        <v>445450</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>488557</v>
+        <v>489968</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7450678262398004</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7087467895942774</v>
+        <v>0.7077209317276073</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7762077152835206</v>
+        <v>0.7784506114488344</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>165</v>
@@ -3031,19 +3031,19 @@
         <v>177995</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>162353</v>
+        <v>163585</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>191919</v>
+        <v>192277</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6842581739285553</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6241232168018125</v>
+        <v>0.6288614932730963</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7377855096775574</v>
+        <v>0.7391585280271047</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>604</v>
@@ -3052,19 +3052,19 @@
         <v>646952</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>617807</v>
+        <v>617941</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>674285</v>
+        <v>673824</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.727285259269029</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6945207207817881</v>
+        <v>0.6946712368333202</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.758011990163991</v>
+        <v>0.7574940822830617</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>319268</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>287623</v>
+        <v>285091</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>350325</v>
+        <v>351073</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2757185685935053</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2483897250588829</v>
+        <v>0.2462032348608196</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3025390409592774</v>
+        <v>0.3031845177264588</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>258</v>
@@ -3177,19 +3177,19 @@
         <v>276257</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>250900</v>
+        <v>249541</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>302783</v>
+        <v>304801</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3603393660271039</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3272644640601184</v>
+        <v>0.3254927251314427</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3949393134009995</v>
+        <v>0.3975719618713128</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>556</v>
@@ -3198,19 +3198,19 @@
         <v>595525</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>555237</v>
+        <v>554232</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>638971</v>
+        <v>642404</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3094268309896373</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2884937705130066</v>
+        <v>0.2879715168582219</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3320006637482642</v>
+        <v>0.3337845045880664</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>838682</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>807625</v>
+        <v>806877</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>870327</v>
+        <v>872859</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7242814314064947</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6974609590407221</v>
+        <v>0.6968154822735411</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7516102749411169</v>
+        <v>0.7537967651391803</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>453</v>
@@ -3248,19 +3248,19 @@
         <v>490400</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>463874</v>
+        <v>461856</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>515757</v>
+        <v>517116</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6396606339728961</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6050606865990007</v>
+        <v>0.6024280381286872</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6727355359398819</v>
+        <v>0.6745072748685575</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1237</v>
@@ -3269,19 +3269,19 @@
         <v>1329082</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1285636</v>
+        <v>1282203</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1369370</v>
+        <v>1370375</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6905731690103627</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6679993362517358</v>
+        <v>0.6662154954119336</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7115062294869934</v>
+        <v>0.7120284831417781</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>127374</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>107984</v>
+        <v>109247</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>148153</v>
+        <v>147679</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2499711380889071</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2119189765142947</v>
+        <v>0.2143971606434736</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2907491892368156</v>
+        <v>0.2898192661767219</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>240</v>
@@ -3394,19 +3394,19 @@
         <v>257475</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>230554</v>
+        <v>231568</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>285937</v>
+        <v>286358</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3385766001044798</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3031761029718988</v>
+        <v>0.3045088277462439</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3760043966199961</v>
+        <v>0.3765579927089207</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>363</v>
@@ -3415,19 +3415,19 @@
         <v>384849</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>350267</v>
+        <v>350787</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>417918</v>
+        <v>418584</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3030264227338422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2757969785328755</v>
+        <v>0.2762058488157116</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3290645092192594</v>
+        <v>0.3295888004535441</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>382181</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>361402</v>
+        <v>361876</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>401571</v>
+        <v>400308</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.750028861911093</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7092508107631843</v>
+        <v>0.7101807338232781</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7880810234857053</v>
+        <v>0.7856028393565264</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>462</v>
@@ -3465,19 +3465,19 @@
         <v>502988</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>474526</v>
+        <v>474105</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>529909</v>
+        <v>528895</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6614233998955202</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6239956033800038</v>
+        <v>0.6234420072910793</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6968238970281012</v>
+        <v>0.6954911722537561</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>825</v>
@@ -3486,19 +3486,19 @@
         <v>885170</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>852101</v>
+        <v>851435</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>919752</v>
+        <v>919232</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6969735772661578</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6709354907807407</v>
+        <v>0.6704111995464557</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7242030214671245</v>
+        <v>0.7237941511842884</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>14030</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7823</v>
+        <v>8000</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22378</v>
+        <v>22669</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05256831035137667</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02931245572258724</v>
+        <v>0.02997664641739744</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08385166064155733</v>
+        <v>0.0849401234514396</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>265</v>
@@ -3611,19 +3611,19 @@
         <v>281979</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>249101</v>
+        <v>253044</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>308586</v>
+        <v>315693</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2541837698817279</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2245470213967458</v>
+        <v>0.2281010984660597</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2781680925301137</v>
+        <v>0.2845741426522746</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>279</v>
@@ -3632,19 +3632,19 @@
         <v>296009</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>268009</v>
+        <v>266705</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>327534</v>
+        <v>327349</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2150860915964269</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1947408057634199</v>
+        <v>0.1937931568317079</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2379931615931557</v>
+        <v>0.2378587729252167</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>252852</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>244504</v>
+        <v>244213</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259059</v>
+        <v>258882</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9474316896486233</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9161483393584428</v>
+        <v>0.9150598765485605</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9706875442774129</v>
+        <v>0.9700233535826026</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>779</v>
@@ -3682,19 +3682,19 @@
         <v>827372</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>800765</v>
+        <v>793658</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>860250</v>
+        <v>856307</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7458162301182721</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7218319074698862</v>
+        <v>0.7154258573477253</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7754529786032535</v>
+        <v>0.7718989015339403</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1030</v>
@@ -3703,19 +3703,19 @@
         <v>1080224</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1048699</v>
+        <v>1048884</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1108224</v>
+        <v>1109528</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7849139084035731</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7620068384068444</v>
+        <v>0.7621412270747834</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8052591942365801</v>
+        <v>0.8062068431682921</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>868073</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>814717</v>
+        <v>815918</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>920972</v>
+        <v>917297</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2538367188560369</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2382345890487382</v>
+        <v>0.2385857059781918</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2693050900874496</v>
+        <v>0.2682304412832291</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1087</v>
@@ -3828,19 +3828,19 @@
         <v>1170900</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1115945</v>
+        <v>1109528</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1233980</v>
+        <v>1231435</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3301150445760458</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3146213304318092</v>
+        <v>0.3128122014771955</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3478992942435604</v>
+        <v>0.3471818409686017</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1901</v>
@@ -3849,19 +3849,19 @@
         <v>2038973</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1965719</v>
+        <v>1956768</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2121273</v>
+        <v>2117233</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2926718780513037</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2821570737904389</v>
+        <v>0.2808722311084218</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3044851533581628</v>
+        <v>0.303905235993191</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2551737</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2498838</v>
+        <v>2502513</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2605093</v>
+        <v>2603892</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7461632811439631</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7306949099125505</v>
+        <v>0.7317695587167709</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7617654109512617</v>
+        <v>0.7614142940218082</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2200</v>
@@ -3899,19 +3899,19 @@
         <v>2376045</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2312965</v>
+        <v>2315510</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2431000</v>
+        <v>2437417</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6698849554239542</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6521007057564379</v>
+        <v>0.6528181590313984</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6853786695681905</v>
+        <v>0.6871877985228048</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4589</v>
@@ -3920,19 +3920,19 @@
         <v>4927781</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4845481</v>
+        <v>4849521</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5001035</v>
+        <v>5009986</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7073281219486962</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6955148466418372</v>
+        <v>0.6960947640068089</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.717842926209561</v>
+        <v>0.7191277688915778</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>69136</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54326</v>
+        <v>53803</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88078</v>
+        <v>85361</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1615591664496998</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1269516365170453</v>
+        <v>0.1257282912008295</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2058255285968534</v>
+        <v>0.1994760221012425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>91</v>
@@ -4287,19 +4287,19 @@
         <v>94372</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>79431</v>
+        <v>77805</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>113992</v>
+        <v>111699</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2719235425711886</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2288722055786157</v>
+        <v>0.2241866812889911</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3284537068974923</v>
+        <v>0.3218484826951538</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>156</v>
@@ -4308,19 +4308,19 @@
         <v>163508</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>141113</v>
+        <v>142704</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>186642</v>
+        <v>187990</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2109829366477803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1820856803503057</v>
+        <v>0.1841385944423089</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2408334458035024</v>
+        <v>0.2425728163315043</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>358791</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>339849</v>
+        <v>342566</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>373601</v>
+        <v>374124</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8384408335503002</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7941744714031462</v>
+        <v>0.8005239778987575</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8730483634829541</v>
+        <v>0.8742717087991705</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -4358,19 +4358,19 @@
         <v>252683</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>233063</v>
+        <v>235356</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>267624</v>
+        <v>269250</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7280764574288114</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6715462931025076</v>
+        <v>0.6781515173048461</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7711277944213839</v>
+        <v>0.7758133187110089</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>571</v>
@@ -4379,19 +4379,19 @@
         <v>611474</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>588340</v>
+        <v>586992</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>633869</v>
+        <v>632278</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7890170633522197</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7591665541964976</v>
+        <v>0.7574271836684957</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8179143196496941</v>
+        <v>0.8158614055576906</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>85283</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69237</v>
+        <v>67970</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101709</v>
+        <v>102391</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2267079482767011</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.184053905080875</v>
+        <v>0.1806854921814975</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2703741650279497</v>
+        <v>0.2721857742210581</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -4504,19 +4504,19 @@
         <v>100768</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85441</v>
+        <v>82923</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121949</v>
+        <v>119550</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2714159570937307</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2301329384520315</v>
+        <v>0.2233499640818793</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3284675192962798</v>
+        <v>0.3220051410908708</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>173</v>
@@ -4525,19 +4525,19 @@
         <v>186051</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>163636</v>
+        <v>162321</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>213227</v>
+        <v>212174</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2489150217014637</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.218926252704166</v>
+        <v>0.2171675074157779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2852732976069249</v>
+        <v>0.283864456577951</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>290897</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>274471</v>
+        <v>273789</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>306943</v>
+        <v>308210</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.773292051723299</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7296258349720501</v>
+        <v>0.7278142257789423</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8159460949191251</v>
+        <v>0.8193145078185026</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>255</v>
@@ -4575,19 +4575,19 @@
         <v>270500</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>249319</v>
+        <v>251718</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>285827</v>
+        <v>288345</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7285840429062692</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6715324807037202</v>
+        <v>0.6779948589091292</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7698670615479685</v>
+        <v>0.7766500359181207</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>531</v>
@@ -4596,19 +4596,19 @@
         <v>561397</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>534221</v>
+        <v>535274</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>583812</v>
+        <v>585127</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7510849782985363</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.714726702393075</v>
+        <v>0.716135543422049</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.781073747295834</v>
+        <v>0.7828324925842219</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>104236</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86442</v>
+        <v>86197</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>124178</v>
+        <v>125710</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.199718824512066</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1656256396468516</v>
+        <v>0.1651548510966244</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.237927372619429</v>
+        <v>0.240863547570037</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -4721,19 +4721,19 @@
         <v>31335</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22806</v>
+        <v>22537</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43245</v>
+        <v>42519</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1898655894139876</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1381850100371735</v>
+        <v>0.1365563631981747</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2620284745510414</v>
+        <v>0.2576315021963485</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -4742,19 +4742,19 @@
         <v>135571</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114457</v>
+        <v>114335</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>158148</v>
+        <v>155957</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1973516151040595</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1666157201240026</v>
+        <v>0.1664375312373538</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2302169692835061</v>
+        <v>0.2270268057991568</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>417678</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>397736</v>
+        <v>396204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>435472</v>
+        <v>435717</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.800281175487934</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7620726273805709</v>
+        <v>0.7591364524299629</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.834374360353148</v>
+        <v>0.8348451489033756</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>122</v>
@@ -4792,19 +4792,19 @@
         <v>133703</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>121793</v>
+        <v>122519</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>142232</v>
+        <v>142501</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8101344105860124</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7379715254489586</v>
+        <v>0.7423684978036514</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8618149899628266</v>
+        <v>0.8634436368018252</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>525</v>
@@ -4813,19 +4813,19 @@
         <v>551381</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>528804</v>
+        <v>530995</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>572495</v>
+        <v>572617</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8026483848959405</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7697830307164935</v>
+        <v>0.7729731942008433</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8333842798759972</v>
+        <v>0.8335624687626463</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>232144</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>206167</v>
+        <v>204919</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>261740</v>
+        <v>257965</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2021345304857145</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1795154600319996</v>
+        <v>0.1784286124646882</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2279045131369054</v>
+        <v>0.2246178428450379</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>202</v>
@@ -4938,19 +4938,19 @@
         <v>209971</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>183997</v>
+        <v>185343</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>234329</v>
+        <v>234198</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2558814215536376</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2242286930260175</v>
+        <v>0.2258682491517927</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2855652127061655</v>
+        <v>0.2854059532680434</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>425</v>
@@ -4959,19 +4959,19 @@
         <v>442115</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>406066</v>
+        <v>405402</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>484515</v>
+        <v>480520</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2245330070009661</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2062253724684767</v>
+        <v>0.2058881810097111</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2460664016300189</v>
+        <v>0.2440374742787382</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>916319</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>886723</v>
+        <v>890498</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>942296</v>
+        <v>943544</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7978654695142855</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7720954868630946</v>
+        <v>0.7753821571549622</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8204845399680004</v>
+        <v>0.8215713875353118</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>591</v>
@@ -5009,19 +5009,19 @@
         <v>610607</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>586249</v>
+        <v>586380</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>636581</v>
+        <v>635235</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7441185784463623</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7144347872938346</v>
+        <v>0.7145940467319567</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7757713069739826</v>
+        <v>0.7741317508482074</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1470</v>
@@ -5030,19 +5030,19 @@
         <v>1526926</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1484526</v>
+        <v>1488521</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1562975</v>
+        <v>1563639</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7754669929990339</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7539335983699812</v>
+        <v>0.7559625257212618</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7937746275315235</v>
+        <v>0.7941118189902885</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>93482</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76258</v>
+        <v>77265</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111408</v>
+        <v>113926</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1514035721126901</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1235077878846525</v>
+        <v>0.1251387078801952</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1804352141324339</v>
+        <v>0.1845147254694717</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>157</v>
@@ -5155,19 +5155,19 @@
         <v>162465</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139784</v>
+        <v>140706</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>185231</v>
+        <v>186027</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.22093430295686</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1900902907691359</v>
+        <v>0.1913441023225769</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2518922873924776</v>
+        <v>0.2529753708258136</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>245</v>
@@ -5176,19 +5176,19 @@
         <v>255948</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>225932</v>
+        <v>230043</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>283702</v>
+        <v>287970</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1891993052052337</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1670113921000694</v>
+        <v>0.1700503792307751</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2097152927758718</v>
+        <v>0.2128707035291703</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>523956</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>506030</v>
+        <v>503512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>541180</v>
+        <v>540173</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8485964278873099</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8195647858675663</v>
+        <v>0.8154852745305283</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8764922121153476</v>
+        <v>0.8748612921198049</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>539</v>
@@ -5226,19 +5226,19 @@
         <v>572891</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>550125</v>
+        <v>549329</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>595572</v>
+        <v>594650</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7790656970431401</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7481077126075225</v>
+        <v>0.7470246291741865</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8099097092308641</v>
+        <v>0.8086558976774232</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1045</v>
@@ -5247,19 +5247,19 @@
         <v>1096846</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1069092</v>
+        <v>1064824</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1126862</v>
+        <v>1122751</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8108006947947664</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7902847072241281</v>
+        <v>0.7871292964708291</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8329886078999306</v>
+        <v>0.8299496207692248</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>30553</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20644</v>
+        <v>21019</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41441</v>
+        <v>43288</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1072118641411953</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07244184085282029</v>
+        <v>0.07375699822087886</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1454210608727579</v>
+        <v>0.1519015902932658</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>196</v>
@@ -5372,19 +5372,19 @@
         <v>210230</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>183903</v>
+        <v>183023</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>237796</v>
+        <v>238032</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1948014868996009</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.170406833871233</v>
+        <v>0.1695906399104339</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2203440405416927</v>
+        <v>0.2205632621785768</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>223</v>
@@ -5393,19 +5393,19 @@
         <v>240783</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>215125</v>
+        <v>214832</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>271122</v>
+        <v>274646</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1765041718352239</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1576956085976735</v>
+        <v>0.1574811574268848</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1987443829092824</v>
+        <v>0.2013271416542632</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>254421</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>243533</v>
+        <v>241686</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264330</v>
+        <v>263955</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8927881358588047</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8545789391272419</v>
+        <v>0.8480984097067342</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9275581591471793</v>
+        <v>0.926243001779121</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>793</v>
@@ -5443,19 +5443,19 @@
         <v>868972</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>841406</v>
+        <v>841170</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>895299</v>
+        <v>896179</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.805198513100399</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7796559594583072</v>
+        <v>0.7794367378214232</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8295931661287669</v>
+        <v>0.8304093600895661</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1036</v>
@@ -5464,19 +5464,19 @@
         <v>1123393</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1093054</v>
+        <v>1089530</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1149051</v>
+        <v>1149344</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8234958281647761</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8012556170907175</v>
+        <v>0.7986728583457368</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8423043914023264</v>
+        <v>0.8425188425731152</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>614834</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>568731</v>
+        <v>566744</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>658424</v>
+        <v>661684</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1820706151145994</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1684183036747792</v>
+        <v>0.1678300106426859</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1949790041811597</v>
+        <v>0.1959444853767092</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>772</v>
@@ -5589,19 +5589,19 @@
         <v>809142</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>760255</v>
+        <v>759505</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>862541</v>
+        <v>860021</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2299679866034413</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2160737070221358</v>
+        <v>0.2158607560084126</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2451446925078438</v>
+        <v>0.2444286316081036</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1351</v>
@@ -5610,19 +5610,19 @@
         <v>1423975</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1357075</v>
+        <v>1352924</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1495166</v>
+        <v>1493124</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2065111032826399</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1968089193350163</v>
+        <v>0.1962069628836279</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2168354645386877</v>
+        <v>0.2165393912183749</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2762062</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2718472</v>
+        <v>2715212</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2808165</v>
+        <v>2810152</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8179293848854007</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8050209958188402</v>
+        <v>0.8040555146232908</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8315816963252216</v>
+        <v>0.8321699893573141</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2541</v>
@@ -5660,19 +5660,19 @@
         <v>2709355</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2655956</v>
+        <v>2658476</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2758242</v>
+        <v>2758992</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7700320133965587</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7548553074921562</v>
+        <v>0.7555713683918963</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7839262929778642</v>
+        <v>0.7841392439915874</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5178</v>
@@ -5681,19 +5681,19 @@
         <v>5471418</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5400227</v>
+        <v>5402269</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5538318</v>
+        <v>5542469</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7934888967173601</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7831645354613123</v>
+        <v>0.7834606087816249</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8031910806649837</v>
+        <v>0.8037930371163721</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>82203</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64819</v>
+        <v>65488</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101801</v>
+        <v>103060</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1498627715164352</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1181709282553517</v>
+        <v>0.1193897357796325</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1855903661508732</v>
+        <v>0.1878868705596405</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>145</v>
@@ -6048,19 +6048,19 @@
         <v>108367</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93250</v>
+        <v>94352</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125079</v>
+        <v>124531</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2228450771563953</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1917597060273024</v>
+        <v>0.1940257229801962</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2572117715497059</v>
+        <v>0.2560841464900886</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>219</v>
@@ -6069,19 +6069,19 @@
         <v>190570</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>166229</v>
+        <v>168120</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>215497</v>
+        <v>215164</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1841593044958635</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1606369181824715</v>
+        <v>0.1624640940656078</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2082471525220821</v>
+        <v>0.2079256944353143</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>466320</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>446722</v>
+        <v>445463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>483704</v>
+        <v>483035</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8501372284835648</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.814409633849127</v>
+        <v>0.8121131294403602</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8818290717446483</v>
+        <v>0.8806102642203676</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>538</v>
@@ -6119,19 +6119,19 @@
         <v>377921</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>361209</v>
+        <v>361757</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>393038</v>
+        <v>391936</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7771549228436048</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7427882284502941</v>
+        <v>0.7439158535099116</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8082402939726976</v>
+        <v>0.8059742770198041</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1016</v>
@@ -6140,19 +6140,19 @@
         <v>844242</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>819315</v>
+        <v>819648</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>868583</v>
+        <v>866692</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8158406955041365</v>
+        <v>0.8158406955041363</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.791752847477918</v>
+        <v>0.7920743055646856</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8393630818175283</v>
+        <v>0.8375359059343922</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>83365</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66591</v>
+        <v>65524</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>105448</v>
+        <v>103523</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1725232255588578</v>
+        <v>0.1725232255588577</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1378094742082967</v>
+        <v>0.135600943127351</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2182232197286129</v>
+        <v>0.2142389939776129</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -6265,19 +6265,19 @@
         <v>109858</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93476</v>
+        <v>93989</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124970</v>
+        <v>127523</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2602230340246548</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2214195268766384</v>
+        <v>0.222634410148443</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2960192294901819</v>
+        <v>0.3020683712925849</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>212</v>
@@ -6286,19 +6286,19 @@
         <v>193223</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>168413</v>
+        <v>169787</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>220485</v>
+        <v>218726</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2134165529703863</v>
+        <v>0.2134165529703862</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1860142908592736</v>
+        <v>0.1875312574776088</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2435274600128544</v>
+        <v>0.2415853841326294</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>399847</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>377764</v>
+        <v>379689</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>416621</v>
+        <v>417688</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8274767744411424</v>
+        <v>0.8274767744411423</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7817767802713871</v>
+        <v>0.7857610060223872</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8621905257917036</v>
+        <v>0.864399056872649</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>445</v>
@@ -6336,19 +6336,19 @@
         <v>312309</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>297197</v>
+        <v>294644</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>328691</v>
+        <v>328178</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7397769659753453</v>
+        <v>0.739776965975345</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7039807705098177</v>
+        <v>0.6979316287074151</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7785804731233614</v>
+        <v>0.777365589851557</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>857</v>
@@ -6357,19 +6357,19 @@
         <v>712156</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>684894</v>
+        <v>686653</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>736966</v>
+        <v>735592</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7865834470296137</v>
+        <v>0.7865834470296136</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7564725399871456</v>
+        <v>0.7584146158673706</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8139857091407267</v>
+        <v>0.8124687425223912</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>76996</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61091</v>
+        <v>62273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96602</v>
+        <v>97988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1640067662047349</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1301288492368802</v>
+        <v>0.1326457260087999</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2057699714569984</v>
+        <v>0.2087222788106735</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -6482,19 +6482,19 @@
         <v>42093</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32540</v>
+        <v>31828</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53606</v>
+        <v>52303</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2244995737150881</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1735511120679001</v>
+        <v>0.1697528798556892</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2859012195854072</v>
+        <v>0.2789526543577127</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -6503,19 +6503,19 @@
         <v>119089</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>100278</v>
+        <v>100238</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>140000</v>
+        <v>140277</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.181271417012334</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.152639284658289</v>
+        <v>0.1525776571181723</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2131018340807095</v>
+        <v>0.2135232136278757</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>392470</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>372864</v>
+        <v>371478</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>408375</v>
+        <v>407193</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8359932337952651</v>
+        <v>0.8359932337952652</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7942300285430015</v>
+        <v>0.7912777211893264</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8698711507631197</v>
+        <v>0.8673542739912001</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>235</v>
@@ -6553,19 +6553,19 @@
         <v>145404</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>133891</v>
+        <v>135194</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>154957</v>
+        <v>155669</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.775500426284912</v>
+        <v>0.7755004262849118</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7140987804145928</v>
+        <v>0.7210473456422875</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8264488879320999</v>
+        <v>0.8302471201443109</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>649</v>
@@ -6574,19 +6574,19 @@
         <v>537874</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>516963</v>
+        <v>516686</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>556685</v>
+        <v>556725</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8187285829876658</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7868981659192904</v>
+        <v>0.7864767863721244</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8473607153417109</v>
+        <v>0.8474223428818278</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>172958</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>147243</v>
+        <v>145569</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>205206</v>
+        <v>201457</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1530994953933368</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1303369957845389</v>
+        <v>0.1288554506182454</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.18164485156469</v>
+        <v>0.1783262392668844</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>280</v>
@@ -6699,19 +6699,19 @@
         <v>219397</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>196579</v>
+        <v>197357</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>241993</v>
+        <v>243227</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.255183646470265</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2286438055607382</v>
+        <v>0.2295481077113493</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.281465354605858</v>
+        <v>0.2829002209837575</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>427</v>
@@ -6720,19 +6720,19 @@
         <v>392355</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>357508</v>
+        <v>350415</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>432634</v>
+        <v>424663</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1972157944508688</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1796997392542351</v>
+        <v>0.1761348697265043</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2174617123707003</v>
+        <v>0.2134549661396989</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>956751</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>924503</v>
+        <v>928252</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>982466</v>
+        <v>984140</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.846900504606663</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8183551484353099</v>
+        <v>0.8216737607331155</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8696630042154611</v>
+        <v>0.8711445493817543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>948</v>
@@ -6770,19 +6770,19 @@
         <v>640365</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>617769</v>
+        <v>616535</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>663183</v>
+        <v>662405</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.744816353529735</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.718534645394142</v>
+        <v>0.7170997790162424</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7713561944392618</v>
+        <v>0.7704518922886505</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1917</v>
@@ -6791,19 +6791,19 @@
         <v>1597117</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1556838</v>
+        <v>1564809</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1631964</v>
+        <v>1639057</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8027842055491312</v>
+        <v>0.8027842055491311</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7825382876292998</v>
+        <v>0.7865450338603011</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8203002607457649</v>
+        <v>0.8238651302734956</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>77300</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61492</v>
+        <v>60375</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99119</v>
+        <v>97919</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1370560968117293</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1090272127898703</v>
+        <v>0.1070467288352881</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1757409764208526</v>
+        <v>0.1736127783803362</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>213</v>
@@ -6916,19 +6916,19 @@
         <v>162694</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>144761</v>
+        <v>143994</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>185852</v>
+        <v>185894</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1963127800172492</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1746749547885041</v>
+        <v>0.1737496141095551</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2242565320983293</v>
+        <v>0.2243071724693876</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>279</v>
@@ -6937,19 +6937,19 @@
         <v>239994</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>212781</v>
+        <v>215184</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>270499</v>
+        <v>268385</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1723163397338037</v>
+        <v>0.1723163397338036</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.152777226089632</v>
+        <v>0.1545028595993241</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1942191840589843</v>
+        <v>0.1927011453428357</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>486706</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>464887</v>
+        <v>466087</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>502514</v>
+        <v>503631</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8629439031882709</v>
+        <v>0.8629439031882706</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8242590235791474</v>
+        <v>0.8263872216196638</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8909727872101297</v>
+        <v>0.892953271164712</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1074</v>
@@ -6987,19 +6987,19 @@
         <v>666053</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>642895</v>
+        <v>642853</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>683986</v>
+        <v>684753</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8036872199827507</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7757434679016706</v>
+        <v>0.7756928275306126</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8253250452114956</v>
+        <v>0.826250385890445</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1552</v>
@@ -7008,19 +7008,19 @@
         <v>1152758</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1122253</v>
+        <v>1124367</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1179971</v>
+        <v>1177568</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8276836602661964</v>
+        <v>0.8276836602661963</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8057808159410156</v>
+        <v>0.8072988546571643</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8472227739103677</v>
+        <v>0.8454971404006761</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>12050</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3150</v>
+        <v>3465</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26315</v>
+        <v>27810</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05079498542256715</v>
+        <v>0.05079498542256716</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01328002257978957</v>
+        <v>0.01460524445893206</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1109289427966047</v>
+        <v>0.1172270667140022</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>119</v>
@@ -7133,19 +7133,19 @@
         <v>89991</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>74061</v>
+        <v>73497</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>106889</v>
+        <v>107892</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1069507804174058</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08801802823757589</v>
+        <v>0.08734818549647203</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1270327684615008</v>
+        <v>0.1282243535464121</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>124</v>
@@ -7154,19 +7154,19 @@
         <v>102041</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>83737</v>
+        <v>82741</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>122896</v>
+        <v>123173</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09460049502630699</v>
+        <v>0.09460049502630705</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07763071075186763</v>
+        <v>0.0767071673784228</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1139340297859897</v>
+        <v>0.1141911473416477</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>225178</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>210913</v>
+        <v>209418</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234078</v>
+        <v>233763</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9492050145774328</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8890710572033952</v>
+        <v>0.8827729332859978</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9867199774202103</v>
+        <v>0.985394755541068</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1037</v>
@@ -7204,19 +7204,19 @@
         <v>751437</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>734539</v>
+        <v>733536</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>767367</v>
+        <v>767931</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8930492195825942</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8729672315384991</v>
+        <v>0.8717756464535877</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.911981971762424</v>
+        <v>0.9126518145035279</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1144</v>
@@ -7225,19 +7225,19 @@
         <v>976615</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>955760</v>
+        <v>955483</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>994919</v>
+        <v>995915</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9053995049736927</v>
+        <v>0.9053995049736933</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8860659702140102</v>
+        <v>0.8858088526583525</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9223692892481324</v>
+        <v>0.9232928326215774</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>504872</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>458993</v>
+        <v>460662</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>555911</v>
+        <v>551973</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1471011791203233</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1337337121452755</v>
+        <v>0.1342199443418578</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1619721159626307</v>
+        <v>0.1608246645791538</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>954</v>
@@ -7350,19 +7350,19 @@
         <v>732400</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>683284</v>
+        <v>688861</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>773363</v>
+        <v>777693</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2019917522779381</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1884459236451445</v>
+        <v>0.189983986640756</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.213289191826722</v>
+        <v>0.2144833810745669</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1387</v>
@@ -7371,19 +7371,19 @@
         <v>1237272</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1169921</v>
+        <v>1168649</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1300568</v>
+        <v>1296994</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1752998545058384</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1657573186365022</v>
+        <v>0.1655771759259486</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1842678291204225</v>
+        <v>0.1837614414065872</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2927271</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2876232</v>
+        <v>2880170</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2973150</v>
+        <v>2971481</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8528988208796768</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8380278840373692</v>
+        <v>0.8391753354208468</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8662662878547241</v>
+        <v>0.8657800556581423</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4277</v>
@@ -7421,19 +7421,19 @@
         <v>2893490</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2852527</v>
+        <v>2848197</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2942606</v>
+        <v>2937029</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7980082477220618</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.786710808173278</v>
+        <v>0.785516618925433</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8115540763548554</v>
+        <v>0.8100160133592441</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7135</v>
@@ -7442,19 +7442,19 @@
         <v>5820761</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5757465</v>
+        <v>5761039</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5888112</v>
+        <v>5889384</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8247001454941617</v>
+        <v>0.8247001454941615</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8157321708795776</v>
+        <v>0.8162385585934129</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.834242681363498</v>
+        <v>0.8344228240740514</v>
       </c>
     </row>
     <row r="24">
